--- a/inventories.xlsx
+++ b/inventories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="979" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="79">
   <si>
     <t xml:space="preserve">family</t>
   </si>
@@ -242,6 +242,21 @@
   </si>
   <si>
     <t xml:space="preserve">Chirikba 1996: 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indoeuropean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Russian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s, z, sʲ, zʲ, ts, ʃ, ʒ, ɕ, tɕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Князев, Пожарицкая 2011</t>
   </si>
 </sst>
 </file>
@@ -330,7 +345,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -343,16 +358,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -432,32 +443,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1:O18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="38.4744897959184"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="37.9336734693878"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="8.77551020408163"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -467,337 +478,333 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="4" t="n">
-        <v>68.64356</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>170.04503</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="N2" s="3" t="n">
+        <v>67.213529</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>179.808641</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N3" s="3" t="n">
         <v>63.89771</v>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="3" t="n">
         <v>166.69474</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="D4" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N4" s="3" t="n">
         <v>60.38443</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="3" t="n">
         <v>165.65285</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="4" t="n">
+      <c r="N5" s="3" t="n">
         <v>62.17769</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="3" t="n">
         <v>175.06969</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="N6" s="3" t="n">
         <v>56.77984</v>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="3" t="n">
         <v>156.90623</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="4" t="n">
+      <c r="N7" s="3" t="n">
         <v>56.77984</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="3" t="n">
         <v>156.90623</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -812,37 +819,36 @@
       <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="4" t="n">
+      <c r="N8" s="3" t="n">
         <v>63.43083</v>
       </c>
-      <c r="O8" s="4" t="n">
+      <c r="O8" s="3" t="n">
         <v>189.72834</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -857,37 +863,36 @@
       <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="N9" s="3" t="n">
         <v>65.51842</v>
       </c>
-      <c r="O9" s="4" t="n">
+      <c r="O9" s="3" t="n">
         <v>188.2446</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -902,20 +907,20 @@
       <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="N10" s="3" t="n">
         <v>64.5192</v>
       </c>
-      <c r="O10" s="4" t="n">
+      <c r="O10" s="3" t="n">
         <v>186.075</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -934,7 +939,7 @@
       <c r="F11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -949,20 +954,20 @@
       <c r="K11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="3" t="n">
         <v>44.34722</v>
       </c>
-      <c r="O11" s="4" t="n">
+      <c r="O11" s="3" t="n">
         <v>41.77861</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -981,7 +986,7 @@
       <c r="F12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -996,20 +1001,20 @@
       <c r="K12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="4" t="n">
+      <c r="N12" s="3" t="n">
         <v>44.4498344</v>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="O12" s="3" t="n">
         <v>41.7879221</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1028,7 +1033,7 @@
       <c r="F13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1049,14 +1054,14 @@
       <c r="M13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="4" t="n">
+      <c r="N13" s="3" t="n">
         <v>44.86667</v>
       </c>
-      <c r="O13" s="4" t="n">
+      <c r="O13" s="3" t="n">
         <v>39.28333</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1075,7 +1080,7 @@
       <c r="F14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1096,14 +1101,14 @@
       <c r="M14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="4" t="n">
+      <c r="N14" s="3" t="n">
         <v>44.18472</v>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="O14" s="3" t="n">
         <v>39.50098</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1137,20 +1142,20 @@
       <c r="K15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="5" t="s">
+      <c r="L15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="4" t="n">
+      <c r="N15" s="3" t="n">
         <v>45.08389</v>
       </c>
-      <c r="O15" s="4" t="n">
+      <c r="O15" s="3" t="n">
         <v>39.86139</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1184,20 +1189,20 @@
       <c r="K16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="5" t="s">
+      <c r="L16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="4" t="n">
+      <c r="N16" s="3" t="n">
         <v>45.02</v>
       </c>
-      <c r="O16" s="4" t="n">
+      <c r="O16" s="3" t="n">
         <v>40.23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1234,17 +1239,17 @@
       <c r="L17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N17" s="4" t="n">
+      <c r="N17" s="3" t="n">
         <v>44.24611</v>
       </c>
-      <c r="O17" s="4" t="n">
+      <c r="O17" s="3" t="n">
         <v>41.74139</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1281,14 +1286,61 @@
       <c r="L18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="4" t="n">
+      <c r="N18" s="3" t="n">
         <v>43.50822</v>
       </c>
-      <c r="O18" s="4" t="n">
+      <c r="O18" s="3" t="n">
         <v>43.39182</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/inventories.xlsx
+++ b/inventories.xlsx
@@ -693,9 +693,9 @@
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -705,7 +705,7 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1938775510204"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="true" max="6" min="6" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="78.5663265306122"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8775510204082"/>

--- a/inventories.xlsx
+++ b/inventories.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="239">
   <si>
     <t xml:space="preserve">family</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">language</t>
   </si>
   <si>
+    <t xml:space="preserve">glottocode</t>
+  </si>
+  <si>
     <t xml:space="preserve">dialect</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t xml:space="preserve">Chukchi</t>
   </si>
   <si>
+    <t xml:space="preserve">chuk1273</t>
+  </si>
+  <si>
     <t xml:space="preserve">tʃ/ʃ/s/sʲ/tsʲ</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t xml:space="preserve">Koryak</t>
   </si>
   <si>
+    <t xml:space="preserve">kory1246</t>
+  </si>
+  <si>
     <t xml:space="preserve">tʃ</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t xml:space="preserve">Alutor</t>
   </si>
   <si>
+    <t xml:space="preserve">alut1245</t>
+  </si>
+  <si>
     <t xml:space="preserve">s/sʲ/tsʲ</t>
   </si>
   <si>
@@ -106,6 +118,9 @@
     <t xml:space="preserve">Kerek</t>
   </si>
   <si>
+    <t xml:space="preserve">kere1280</t>
+  </si>
+  <si>
     <t xml:space="preserve">tʃ/s</t>
   </si>
   <si>
@@ -115,6 +130,9 @@
     <t xml:space="preserve">Itelmen</t>
   </si>
   <si>
+    <t xml:space="preserve">itel1242</t>
+  </si>
+  <si>
     <t xml:space="preserve">Napana</t>
   </si>
   <si>
@@ -142,6 +160,9 @@
     <t xml:space="preserve">Central Siberian Yupik</t>
   </si>
   <si>
+    <t xml:space="preserve">cent2128</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chaplino</t>
   </si>
   <si>
@@ -154,9 +175,15 @@
     <t xml:space="preserve">Naukan Yupik</t>
   </si>
   <si>
+    <t xml:space="preserve">nauk1242</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sirenik Yupik</t>
   </si>
   <si>
+    <t xml:space="preserve">sire1246</t>
+  </si>
+  <si>
     <t xml:space="preserve">s, z, ʃ, tʃ</t>
   </si>
   <si>
@@ -169,6 +196,9 @@
     <t xml:space="preserve">Abaza</t>
   </si>
   <si>
+    <t xml:space="preserve">abaz1241</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tapanta</t>
   </si>
   <si>
@@ -190,6 +220,9 @@
     <t xml:space="preserve">Adyghe</t>
   </si>
   <si>
+    <t xml:space="preserve">adyg1241</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bezhedukh</t>
   </si>
   <si>
@@ -229,6 +262,9 @@
     <t xml:space="preserve">Kabardian</t>
   </si>
   <si>
+    <t xml:space="preserve">kaba1278</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beslenej</t>
   </si>
   <si>
@@ -253,6 +289,9 @@
     <t xml:space="preserve">Russian</t>
   </si>
   <si>
+    <t xml:space="preserve">russ1263</t>
+  </si>
+  <si>
     <t xml:space="preserve">Standard Russian</t>
   </si>
   <si>
@@ -268,6 +307,9 @@
     <t xml:space="preserve">Udmurt</t>
   </si>
   <si>
+    <t xml:space="preserve">udmu1245</t>
+  </si>
+  <si>
     <t xml:space="preserve">2…3</t>
   </si>
   <si>
@@ -289,6 +331,9 @@
     <t xml:space="preserve">Northern Mansi</t>
   </si>
   <si>
+    <t xml:space="preserve">mans1258</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sosva Mansi</t>
   </si>
   <si>
@@ -304,12 +349,18 @@
     <t xml:space="preserve">Komi-Yazva</t>
   </si>
   <si>
+    <t xml:space="preserve">komi1277</t>
+  </si>
+  <si>
     <t xml:space="preserve">Лыткин 1961</t>
   </si>
   <si>
     <t xml:space="preserve">Obdorsk Khanty</t>
   </si>
   <si>
+    <t xml:space="preserve">obdo1234</t>
+  </si>
+  <si>
     <t xml:space="preserve">Middle Ob Khanty</t>
   </si>
   <si>
@@ -322,6 +373,9 @@
     <t xml:space="preserve">Veps</t>
   </si>
   <si>
+    <t xml:space="preserve">veps1250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sentral Veps</t>
   </si>
   <si>
@@ -334,6 +388,9 @@
     <t xml:space="preserve">Votic</t>
   </si>
   <si>
+    <t xml:space="preserve">voti1245</t>
+  </si>
+  <si>
     <t xml:space="preserve">West Vod</t>
   </si>
   <si>
@@ -346,6 +403,9 @@
     <t xml:space="preserve">Ingrian</t>
   </si>
   <si>
+    <t xml:space="preserve">ingr1248</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hevaha</t>
   </si>
   <si>
@@ -355,6 +415,9 @@
     <t xml:space="preserve">Karelian</t>
   </si>
   <si>
+    <t xml:space="preserve">kare1335</t>
+  </si>
+  <si>
     <t xml:space="preserve">Southern Karelian</t>
   </si>
   <si>
@@ -367,6 +430,9 @@
     <t xml:space="preserve">Kildin Sami</t>
   </si>
   <si>
+    <t xml:space="preserve">kild1236</t>
+  </si>
+  <si>
     <t xml:space="preserve">z, s, sː, sʲ, sʲː, zʲ, dz, ts, tsː, ʃ, ʃː, ʒ, tsʲ, tsʲː, dzʲ, tɕ, tɕː, dʑ, ɕ, ɕː, ʑ</t>
   </si>
   <si>
@@ -376,6 +442,9 @@
     <t xml:space="preserve">Moksha</t>
   </si>
   <si>
+    <t xml:space="preserve">moks1248</t>
+  </si>
+  <si>
     <t xml:space="preserve">s, z, sʲ, zʲ, ts, tsʲ, ʃ, ʒ, tɕ</t>
   </si>
   <si>
@@ -385,6 +454,9 @@
     <t xml:space="preserve">Western Mari</t>
   </si>
   <si>
+    <t xml:space="preserve">west2392</t>
+  </si>
+  <si>
     <t xml:space="preserve">s, z, ts, ʃ, ʒ, tɕ</t>
   </si>
   <si>
@@ -394,6 +466,9 @@
     <t xml:space="preserve">Ossetian</t>
   </si>
   <si>
+    <t xml:space="preserve">osse1243</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iron</t>
   </si>
   <si>
@@ -406,18 +481,30 @@
     <t xml:space="preserve">Erzya</t>
   </si>
   <si>
+    <t xml:space="preserve">erzy1239</t>
+  </si>
+  <si>
     <t xml:space="preserve">Komi-Permyak</t>
   </si>
   <si>
+    <t xml:space="preserve">komi1269</t>
+  </si>
+  <si>
     <t xml:space="preserve">Баталова 1993</t>
   </si>
   <si>
     <t xml:space="preserve">Komi-Zyrian</t>
   </si>
   <si>
+    <t xml:space="preserve">komi1268</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tundra Nenets</t>
   </si>
   <si>
+    <t xml:space="preserve">nene1249</t>
+  </si>
+  <si>
     <t xml:space="preserve">?</t>
   </si>
   <si>
@@ -430,12 +517,18 @@
     <t xml:space="preserve">Forest Enets</t>
   </si>
   <si>
+    <t xml:space="preserve">fore1265</t>
+  </si>
+  <si>
     <t xml:space="preserve">s, sʲ, ʃ, ɕ, tɕ</t>
   </si>
   <si>
     <t xml:space="preserve">Nganasan</t>
   </si>
   <si>
+    <t xml:space="preserve">ngan1291</t>
+  </si>
+  <si>
     <t xml:space="preserve">Avam</t>
   </si>
   <si>
@@ -445,6 +538,9 @@
     <t xml:space="preserve">Selkup</t>
   </si>
   <si>
+    <t xml:space="preserve">selk1253</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taz-Turukhan</t>
   </si>
   <si>
@@ -457,6 +553,9 @@
     <t xml:space="preserve">Mator-Taigi-Karagas</t>
   </si>
   <si>
+    <t xml:space="preserve">mato1250</t>
+  </si>
+  <si>
     <t xml:space="preserve">s/ʃ, tɕ</t>
   </si>
   <si>
@@ -466,6 +565,9 @@
     <t xml:space="preserve">Khakas</t>
   </si>
   <si>
+    <t xml:space="preserve">khak1248</t>
+  </si>
+  <si>
     <t xml:space="preserve">s, z, tʃ, dʒ</t>
   </si>
   <si>
@@ -475,12 +577,18 @@
     <t xml:space="preserve">Shor</t>
   </si>
   <si>
+    <t xml:space="preserve">shor1247</t>
+  </si>
+  <si>
     <t xml:space="preserve">s, z, tʃ, ʃ, ʒ</t>
   </si>
   <si>
     <t xml:space="preserve">Bashkir</t>
   </si>
   <si>
+    <t xml:space="preserve">bash1264</t>
+  </si>
+  <si>
     <t xml:space="preserve">s, z, ʃ, ʒ, tʃ</t>
   </si>
   <si>
@@ -490,6 +598,9 @@
     <t xml:space="preserve">Tatar</t>
   </si>
   <si>
+    <t xml:space="preserve">tata1255</t>
+  </si>
+  <si>
     <t xml:space="preserve">s, z, ʃ, ʒ, tʃ, dʒ, ts</t>
   </si>
   <si>
@@ -499,6 +610,9 @@
     <t xml:space="preserve">Southern Altai</t>
   </si>
   <si>
+    <t xml:space="preserve">sout2694</t>
+  </si>
+  <si>
     <t xml:space="preserve">s, z, ʃ, ʒ, tʃ, dʒ</t>
   </si>
   <si>
@@ -508,9 +622,15 @@
     <t xml:space="preserve">Northern Altai</t>
   </si>
   <si>
+    <t xml:space="preserve">nort2686</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sayan Turkic</t>
   </si>
   <si>
+    <t xml:space="preserve">kara1462</t>
+  </si>
+  <si>
     <t xml:space="preserve">s, ʃ, tʃ, s/z, ʃ/ʒ, ʧ/dʒ</t>
   </si>
   <si>
@@ -523,6 +643,9 @@
     <t xml:space="preserve">Tuvinian</t>
   </si>
   <si>
+    <t xml:space="preserve">tuvi1240</t>
+  </si>
+  <si>
     <t xml:space="preserve">s, ʃ, ts, s/z, ʃ/ʒ, ʧ</t>
   </si>
   <si>
@@ -532,6 +655,9 @@
     <t xml:space="preserve">Chuvash</t>
   </si>
   <si>
+    <t xml:space="preserve">chuv1255</t>
+  </si>
+  <si>
     <t xml:space="preserve">s, ɕ, ʂ</t>
   </si>
   <si>
@@ -541,6 +667,9 @@
     <t xml:space="preserve">Sakha</t>
   </si>
   <si>
+    <t xml:space="preserve">yaku1245</t>
+  </si>
+  <si>
     <t xml:space="preserve">s, tʃ, dʒ</t>
   </si>
   <si>
@@ -550,6 +679,9 @@
     <t xml:space="preserve">Nogai</t>
   </si>
   <si>
+    <t xml:space="preserve">noga1249</t>
+  </si>
+  <si>
     <t xml:space="preserve">Karagash</t>
   </si>
   <si>
@@ -562,12 +694,18 @@
     <t xml:space="preserve">Dolgan</t>
   </si>
   <si>
+    <t xml:space="preserve">dolg1241</t>
+  </si>
+  <si>
     <t xml:space="preserve">Андросова 1996: 236</t>
   </si>
   <si>
     <t xml:space="preserve">Kara-Kalpak</t>
   </si>
   <si>
+    <t xml:space="preserve">kara1467</t>
+  </si>
+  <si>
     <t xml:space="preserve">Northeastern Karakalpak</t>
   </si>
   <si>
@@ -580,6 +718,9 @@
     <t xml:space="preserve">Karachay-Balkar</t>
   </si>
   <si>
+    <t xml:space="preserve">kara1465</t>
+  </si>
+  <si>
     <t xml:space="preserve">Чеченов, Ахматов 1996: 273</t>
   </si>
   <si>
@@ -590,6 +731,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kumyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kumy1244</t>
   </si>
   <si>
     <t xml:space="preserve">Левитская 1996: 321</t>
@@ -690,33 +834,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="78.5663265306122"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="77.6224489795918"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,2672 +912,2843 @@
       <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>14</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="0" t="n">
         <v>67.213529</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>179.808641</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>17</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="0" t="n">
         <v>63.89771</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>166.69474</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>18</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="0" t="n">
         <v>60.38443</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>165.65285</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>13</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>28</v>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="0" t="n">
         <v>62.17769</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>175.06969</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="0" t="n">
         <v>56.77984</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>156.90623</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="H7" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="0" t="n">
         <v>56.77984</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>156.90623</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="0" t="n">
         <v>63.43083</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>189.72834</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="E9" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" s="0" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="0" t="n">
         <v>65.51842</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>188.2446</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="E10" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="0" t="n">
         <v>64.5192</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>186.075</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E11" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="H11" s="0" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="0" t="n">
         <v>44.34722</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>41.77861</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="H12" s="0" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="0" t="n">
         <v>44.4498344</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>41.7879221</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="0" t="n">
         <v>44.86667</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>39.28333</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="H14" s="0" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="0" t="n">
         <v>44.18472</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>39.50098</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="H15" s="0" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O15" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" s="0" t="n">
         <v>45.08389</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>39.86139</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="H16" s="0" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="0" t="n">
         <v>45.02</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>40.23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="H17" s="0" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="O17" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="0" t="n">
         <v>44.24611</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>41.74139</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="H18" s="0" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" s="0" t="n">
         <v>43.50822</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>43.39182</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="H19" s="0" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="O19" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="0" t="n">
         <v>55.753215</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>37.622504</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="O20" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="0" t="n">
         <v>56.852593</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>53.204843</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="O21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" s="0" t="n">
         <v>58.14081</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>52.674235</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="G22" s="0" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="O22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22" s="0" t="n">
         <v>63.650316</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>62.099508</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="O23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="P23" s="0" t="n">
         <v>60.4</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>57.07</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="0" t="n">
         <v>18</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>97</v>
+      <c r="G24" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="O24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="P24" s="0" t="n">
         <v>66.31</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>67.09</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G25" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="H25" s="0" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="O25" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="0" t="n">
         <v>60.33531</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>34.7865</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>21</v>
+        <v>122</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="E26" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F26" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G26" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="H26" s="0" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="O26" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="0" t="n">
         <v>59.38017</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>28.6235</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="H27" s="0" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="O27" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="P27" s="0" t="n">
         <v>59.47403</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>29.71145</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="H28" s="0" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="O28" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P28" s="0" t="n">
         <v>65.16912</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>30.865535</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>21</v>
-      </c>
       <c r="F29" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G29" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="H29" s="0" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="O29" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="P29" s="0" t="n">
         <v>68.21579</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>35.83479</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>118</v>
-      </c>
       <c r="H30" s="0" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="O30" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="P30" s="0" t="n">
         <v>54.18546</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>42.67277</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="F31" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="G31" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="H31" s="0" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="O31" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="P31" s="0" t="n">
         <v>57.08</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="Q31" s="0" t="n">
         <v>58.83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="F32" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="G32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="H32" s="0" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="O32" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="P32" s="0" t="n">
         <v>43.01667</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="Q32" s="0" t="n">
         <v>44.68333</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="F33" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="G33" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G33" s="0" t="s">
-        <v>118</v>
-      </c>
       <c r="H33" s="0" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="O33" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="P33" s="0" t="n">
         <v>52.85479</v>
       </c>
-      <c r="P33" s="0" t="n">
+      <c r="Q33" s="0" t="n">
         <v>45.3901</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="F34" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="G34" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="O34" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="P34" s="0" t="n">
         <v>59.66024</v>
       </c>
-      <c r="P34" s="0" t="n">
+      <c r="Q34" s="0" t="n">
         <v>54.79589</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="F35" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="G35" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="O35" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="P35" s="0" t="n">
         <v>64.05268</v>
       </c>
-      <c r="P35" s="0" t="n">
+      <c r="Q35" s="0" t="n">
         <v>54.94599</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="F36" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="G36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>133</v>
-      </c>
       <c r="H36" s="0" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="O36" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="P36" s="0" t="n">
         <v>66.17749</v>
       </c>
-      <c r="P36" s="0" t="n">
+      <c r="Q36" s="0" t="n">
         <v>71.02339</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="F37" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="G37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="H37" s="0" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="O37" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="P37" s="0" t="n">
         <v>69.98287</v>
       </c>
-      <c r="P37" s="0" t="n">
+      <c r="Q37" s="0" t="n">
         <v>88.2121</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="0" t="n">
         <v>22</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G38" s="0" t="s">
-        <v>139</v>
+      <c r="G38" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="O38" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="P38" s="0" t="n">
         <v>73.13537</v>
       </c>
-      <c r="P38" s="0" t="n">
+      <c r="Q38" s="0" t="n">
         <v>86.2106</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="F39" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>142</v>
-      </c>
       <c r="H39" s="0" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="O39" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="P39" s="0" t="n">
         <v>59.94093</v>
       </c>
-      <c r="P39" s="0" t="n">
+      <c r="Q39" s="0" t="n">
         <v>82.30036</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="F40" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G40" s="0" t="s">
-        <v>145</v>
-      </c>
       <c r="H40" s="0" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="O40" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="P40" s="0" t="n">
         <v>53.43493</v>
       </c>
-      <c r="P40" s="0" t="n">
+      <c r="Q40" s="0" t="n">
         <v>102.8561</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="F41" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G41" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="H41" s="0" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="O41" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="P41" s="0" t="n">
         <v>50.73933</v>
       </c>
-      <c r="P41" s="0" t="n">
+      <c r="Q41" s="0" t="n">
         <v>107.169385</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="F42" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G42" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="H42" s="0" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="O42" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="P42" s="0" t="n">
         <v>52.32607</v>
       </c>
-      <c r="P42" s="0" t="n">
+      <c r="Q42" s="0" t="n">
         <v>88.4344</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="F43" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G43" s="0" t="s">
-        <v>153</v>
-      </c>
       <c r="H43" s="0" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="O43" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="P43" s="0" t="n">
         <v>53.59671</v>
       </c>
-      <c r="P43" s="0" t="n">
+      <c r="Q43" s="0" t="n">
         <v>56.55937</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="F44" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="H44" s="0" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="O44" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="P44" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="P44" s="0" t="n">
+      <c r="Q44" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="F45" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G45" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="H45" s="0" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="O45" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="P45" s="0" t="n">
         <v>50.13472</v>
       </c>
-      <c r="P45" s="0" t="n">
+      <c r="Q45" s="0" t="n">
         <v>86.87051</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="F46" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G46" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="H46" s="0" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="O46" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="P46" s="0" t="n">
         <v>50.89984</v>
       </c>
-      <c r="P46" s="0" t="n">
+      <c r="Q46" s="0" t="n">
         <v>88.06722</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="F47" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G47" s="0" t="s">
-        <v>163</v>
-      </c>
       <c r="H47" s="0" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="O47" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="P47" s="0" t="n">
         <v>53.7145</v>
       </c>
-      <c r="P47" s="0" t="n">
+      <c r="Q47" s="0" t="n">
         <v>98.37923</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="F48" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G48" s="0" t="s">
-        <v>167</v>
-      </c>
       <c r="H48" s="0" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="O48" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="P48" s="0" t="n">
         <v>48.43595</v>
       </c>
-      <c r="P48" s="0" t="n">
+      <c r="Q48" s="0" t="n">
         <v>92.6692633333</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="F49" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G49" s="0" t="s">
-        <v>170</v>
-      </c>
       <c r="H49" s="0" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="O49" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="P49" s="0" t="n">
         <v>55.48701</v>
       </c>
-      <c r="P49" s="0" t="n">
+      <c r="Q49" s="0" t="n">
         <v>47.16298</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="D50" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E50" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="F50" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G50" s="0" t="s">
-        <v>173</v>
-      </c>
       <c r="H50" s="0" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="O50" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="P50" s="0" t="n">
         <v>61.69744</v>
       </c>
-      <c r="P50" s="0" t="n">
+      <c r="Q50" s="0" t="n">
         <v>133.98031</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="F51" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G51" s="0" t="s">
-        <v>177</v>
-      </c>
       <c r="H51" s="0" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="O51" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="P51" s="0" t="n">
         <v>43.59168</v>
       </c>
-      <c r="P51" s="0" t="n">
+      <c r="Q51" s="0" t="n">
         <v>46.66178</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="D52" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E52" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="F52" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G52" s="0" t="s">
-        <v>173</v>
-      </c>
       <c r="H52" s="0" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="O52" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="P52" s="0" t="n">
         <v>71.10828</v>
       </c>
-      <c r="P52" s="0" t="n">
+      <c r="Q52" s="0" t="n">
         <v>94.29358</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="F53" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="H53" s="0" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="O53" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="P53" s="0" t="n">
         <v>39.98005</v>
       </c>
-      <c r="P53" s="0" t="n">
+      <c r="Q53" s="0" t="n">
         <v>63.32233</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="F54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G54" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="H54" s="0" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="O54" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="P54" s="0" t="n">
         <v>39.98005</v>
       </c>
-      <c r="P54" s="0" t="n">
+      <c r="Q54" s="0" t="n">
         <v>63.32233</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="F55" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G55" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="H55" s="0" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="O55" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="P55" s="0" t="n">
         <v>43.56504</v>
       </c>
-      <c r="P55" s="0" t="n">
+      <c r="Q55" s="0" t="n">
         <v>42.26059</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="F56" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G56" s="0" t="s">
-        <v>188</v>
-      </c>
       <c r="H56" s="0" t="s">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="O56" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="P56" s="0" t="n">
         <v>43.56504</v>
       </c>
-      <c r="P56" s="0" t="n">
+      <c r="Q56" s="0" t="n">
         <v>42.26059</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D57" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E57" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="F57" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G57" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="H57" s="0" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="O57" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="P57" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="P57" s="0" t="n">
+      <c r="Q57" s="0" t="n">
         <v>47</v>
       </c>
     </row>
